--- a/.logics/ITENS-NECESSIDADES.xlsx
+++ b/.logics/ITENS-NECESSIDADES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Valcir\Documents\GitHub\InterDuinoFace_V1\.logics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47AA8AB7-EF05-4348-84EB-B4A5B0476F57}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95F7DB5-1B48-4D9A-9D99-4649AA0593A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8505" yWindow="1245" windowWidth="15375" windowHeight="7995" firstSheet="1" activeTab="2" xr2:uid="{DE3D6ED8-2858-4C9A-8A32-B45163665D44}"/>
+    <workbookView xWindow="10335" yWindow="2040" windowWidth="15375" windowHeight="7995" firstSheet="1" activeTab="1" xr2:uid="{DE3D6ED8-2858-4C9A-8A32-B45163665D44}"/>
   </bookViews>
   <sheets>
     <sheet name="ITENS-NECESSIDADES" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="238">
   <si>
     <t xml:space="preserve">ENTRADAS: </t>
   </si>
@@ -750,13 +750,22 @@
   </si>
   <si>
     <t>4 | 5 | 6</t>
+  </si>
+  <si>
+    <t>ORD.</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -773,6 +782,14 @@
     <font>
       <b/>
       <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -845,7 +862,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -870,20 +887,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -914,6 +922,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1245,32 +1264,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="30" customWidth="1"/>
-    <col min="2" max="2" width="15" style="30" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="30" customWidth="1"/>
-    <col min="4" max="4" width="8" style="30" customWidth="1"/>
-    <col min="5" max="5" width="7" style="30" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" style="30" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="30"/>
+    <col min="1" max="1" width="15.42578125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="15" style="27" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="27" customWidth="1"/>
+    <col min="4" max="4" width="8" style="27" customWidth="1"/>
+    <col min="5" max="5" width="7" style="27" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" style="27" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="29" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:6" s="26" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="25" t="s">
         <v>219</v>
       </c>
     </row>
@@ -1315,10 +1334,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="28" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -1330,7 +1349,7 @@
       <c r="E4" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="12" t="s">
         <v>158</v>
       </c>
     </row>
@@ -1355,10 +1374,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1395,10 +1414,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -1415,10 +1434,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -1435,10 +1454,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -1455,10 +1474,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -1475,10 +1494,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -1495,10 +1514,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="28" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -1515,10 +1534,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="28" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -1535,10 +1554,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="28" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -1555,10 +1574,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="28" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -1575,10 +1594,10 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="28" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -1595,10 +1614,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="28" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -1615,10 +1634,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="28" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="6" t="s">
@@ -1635,10 +1654,10 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="28" t="s">
         <v>224</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="28" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -1655,10 +1674,10 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="28" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="6" t="s">
@@ -1675,10 +1694,10 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="28" t="s">
         <v>9</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -1695,10 +1714,10 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="28" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -1715,10 +1734,10 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="28" t="s">
         <v>9</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -1735,10 +1754,10 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="28" t="s">
         <v>9</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -1755,10 +1774,10 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="28" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="6" t="s">
@@ -1775,10 +1794,10 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="28" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="6" t="s">
@@ -1795,10 +1814,10 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="28" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="6" t="s">
@@ -1815,10 +1834,10 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="28" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="6" t="s">
@@ -1835,10 +1854,10 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="28" t="s">
         <v>9</v>
       </c>
       <c r="C30" s="6" t="s">
@@ -1855,10 +1874,10 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="28" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="6" t="s">
@@ -1875,10 +1894,10 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="28" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="6" t="s">
@@ -1895,10 +1914,10 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="28" t="s">
         <v>9</v>
       </c>
       <c r="C33" s="6" t="s">
@@ -1915,10 +1934,10 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="28" t="s">
         <v>9</v>
       </c>
       <c r="C34" s="6" t="s">
@@ -1941,178 +1960,181 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{138681DD-0EED-4E12-9D97-18CF9594564D}">
-  <dimension ref="A1:U33"/>
+  <dimension ref="A1:V33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+    <sheetView tabSelected="1" topLeftCell="J10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="0.5703125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="1" style="4" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="0.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C1" s="16"/>
-      <c r="D1" s="17" t="s">
+    <row r="1" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C1" s="29"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17" t="s">
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="J1" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="K1" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17" t="s">
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17" t="s">
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31" t="s">
         <v>200</v>
       </c>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-    </row>
-    <row r="2" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C2" s="16" t="s">
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+    </row>
+    <row r="2" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C2" s="29"/>
+      <c r="D2" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="E2" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="F2" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="G2" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="H2" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="18" t="s">
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="L2" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="M2" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="N2" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="O2" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="P2" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="Q2" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="Q2" s="18" t="s">
+      <c r="R2" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="R2" s="18" t="s">
+      <c r="S2" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="S2" s="18" t="s">
+      <c r="T2" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="T2" s="18" t="s">
+      <c r="U2" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="U2" s="18" t="s">
+      <c r="V2" s="15" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="3" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C3" s="15" t="s">
+    <row r="3" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C3" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="E3" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="F3" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="G3" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="H3" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="K3" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="L3" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="M3" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="N3" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="O3" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="P3" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q3" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="R3" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="S3" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="T3" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="U3" s="18" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C4" s="16">
-        <v>0</v>
-      </c>
-      <c r="D4" s="9">
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="S3" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="U3" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="V3" s="15" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C4" s="30"/>
+      <c r="D4" s="14">
         <v>0</v>
       </c>
       <c r="E4" s="9">
@@ -2124,51 +2146,52 @@
       <c r="G4" s="9">
         <v>0</v>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="9">
+        <v>0</v>
+      </c>
       <c r="I4" s="3"/>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="3"/>
+      <c r="K4" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="L4" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="M4" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="M4" s="25" t="s">
+      <c r="N4" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="R4" s="21" t="s">
+      <c r="S4" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="S4" s="24" t="s">
+      <c r="T4" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="T4" s="22" t="s">
+      <c r="U4" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="U4" s="26" t="s">
+      <c r="V4" s="23" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C5" s="16">
+    <row r="5" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C5" s="29"/>
+      <c r="D5" s="14">
         <v>1</v>
-      </c>
-      <c r="D5" s="9">
-        <v>0</v>
       </c>
       <c r="E5" s="9">
         <v>0</v>
@@ -2177,317 +2200,323 @@
         <v>0</v>
       </c>
       <c r="G5" s="9">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9">
         <v>1</v>
       </c>
-      <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="3"/>
+      <c r="K5" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="K5" s="23" t="s">
+      <c r="L5" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="L5" s="20" t="s">
+      <c r="M5" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="M5" s="25" t="s">
+      <c r="N5" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="O5" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="Q5" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="R5" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="R5" s="21" t="s">
+      <c r="S5" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="S5" s="24" t="s">
+      <c r="T5" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="T5" s="22" t="s">
+      <c r="U5" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="U5" s="26" t="s">
+      <c r="V5" s="23" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C6" s="16">
+    <row r="6" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C6" s="29"/>
+      <c r="D6" s="14">
         <v>2</v>
-      </c>
-      <c r="D6" s="9">
-        <v>0</v>
       </c>
       <c r="E6" s="9">
         <v>0</v>
       </c>
       <c r="F6" s="9">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
         <v>1</v>
       </c>
-      <c r="G6" s="9">
+      <c r="H6" s="9">
         <v>0</v>
       </c>
-      <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="19" t="s">
+      <c r="J6" s="3"/>
+      <c r="K6" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="K6" s="23" t="s">
+      <c r="L6" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="M6" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="M6" s="25" t="s">
+      <c r="N6" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="O6" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="Q6" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="R6" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="R6" s="21" t="s">
+      <c r="S6" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="S6" s="24" t="s">
+      <c r="T6" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="T6" s="22" t="s">
+      <c r="U6" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="U6" s="26" t="s">
+      <c r="V6" s="23" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C7" s="16">
+    <row r="7" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C7" s="29"/>
+      <c r="D7" s="14">
         <v>3</v>
-      </c>
-      <c r="D7" s="9">
-        <v>0</v>
       </c>
       <c r="E7" s="9">
         <v>0</v>
       </c>
       <c r="F7" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="9">
         <v>1</v>
       </c>
-      <c r="H7" s="3"/>
+      <c r="H7" s="9">
+        <v>1</v>
+      </c>
       <c r="I7" s="3"/>
-      <c r="J7" s="19" t="s">
+      <c r="J7" s="3"/>
+      <c r="K7" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="K7" s="23" t="s">
+      <c r="L7" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="L7" s="20" t="s">
+      <c r="M7" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="M7" s="25" t="s">
+      <c r="N7" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="O7" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3" t="s">
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="R7" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="R7" s="21" t="s">
+      <c r="S7" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="S7" s="24" t="s">
+      <c r="T7" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="T7" s="22" t="s">
+      <c r="U7" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="U7" s="26" t="s">
+      <c r="V7" s="23" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C8" s="16">
+    <row r="8" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C8" s="29"/>
+      <c r="D8" s="14">
         <v>4</v>
       </c>
-      <c r="D8" s="9">
+      <c r="E8" s="9">
         <v>0</v>
       </c>
-      <c r="E8" s="9">
+      <c r="F8" s="9">
         <v>1</v>
-      </c>
-      <c r="F8" s="9">
-        <v>0</v>
       </c>
       <c r="G8" s="9">
         <v>0</v>
       </c>
-      <c r="H8" s="3"/>
+      <c r="H8" s="9">
+        <v>0</v>
+      </c>
       <c r="I8" s="3"/>
-      <c r="J8" s="19" t="s">
+      <c r="J8" s="3"/>
+      <c r="K8" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="K8" s="23" t="s">
+      <c r="L8" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="L8" s="20" t="s">
+      <c r="M8" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="M8" s="25" t="s">
+      <c r="N8" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="N8" s="3"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="3" t="s">
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="Q8" s="3" t="s">
+      <c r="R8" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="R8" s="21" t="s">
+      <c r="S8" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="S8" s="24" t="s">
+      <c r="T8" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="T8" s="22" t="s">
+      <c r="U8" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="U8" s="26" t="s">
+      <c r="V8" s="23" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C9" s="16">
+    <row r="9" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C9" s="29"/>
+      <c r="D9" s="14">
         <v>5</v>
       </c>
-      <c r="D9" s="9">
+      <c r="E9" s="9">
         <v>0</v>
       </c>
-      <c r="E9" s="9">
+      <c r="F9" s="9">
         <v>1</v>
       </c>
-      <c r="F9" s="9">
+      <c r="G9" s="9">
         <v>0</v>
       </c>
-      <c r="G9" s="9">
+      <c r="H9" s="9">
         <v>1</v>
       </c>
-      <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="19" t="s">
+      <c r="J9" s="3"/>
+      <c r="K9" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="K9" s="23" t="s">
+      <c r="L9" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="L9" s="20" t="s">
+      <c r="M9" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="M9" s="25" t="s">
+      <c r="N9" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="N9" s="3"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="3" t="s">
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="R9" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="R9" s="21" t="s">
+      <c r="S9" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="S9" s="24" t="s">
+      <c r="T9" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="T9" s="22" t="s">
+      <c r="U9" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="U9" s="26" t="s">
+      <c r="V9" s="23" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C10" s="16">
+    <row r="10" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C10" s="29"/>
+      <c r="D10" s="14">
         <v>6</v>
       </c>
-      <c r="D10" s="9">
+      <c r="E10" s="9">
         <v>0</v>
-      </c>
-      <c r="E10" s="9">
-        <v>1</v>
       </c>
       <c r="F10" s="9">
         <v>1</v>
       </c>
       <c r="G10" s="9">
+        <v>1</v>
+      </c>
+      <c r="H10" s="9">
         <v>0</v>
       </c>
-      <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="19" t="s">
+      <c r="J10" s="3"/>
+      <c r="K10" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="K10" s="23" t="s">
+      <c r="L10" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="L10" s="20" t="s">
+      <c r="M10" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="M10" s="25" t="s">
+      <c r="N10" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="N10" s="3"/>
       <c r="O10" s="3"/>
-      <c r="P10" s="3" t="s">
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="Q10" s="3" t="s">
+      <c r="R10" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="R10" s="21" t="s">
+      <c r="S10" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="S10" s="24" t="s">
+      <c r="T10" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="T10" s="22" t="s">
+      <c r="U10" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="U10" s="26" t="s">
+      <c r="V10" s="23" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C11" s="16">
+    <row r="11" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C11" s="29"/>
+      <c r="D11" s="14">
         <v>7</v>
       </c>
-      <c r="D11" s="9">
+      <c r="E11" s="9">
         <v>0</v>
-      </c>
-      <c r="E11" s="9">
-        <v>1</v>
       </c>
       <c r="F11" s="9">
         <v>1</v>
@@ -2495,50 +2524,51 @@
       <c r="G11" s="9">
         <v>1</v>
       </c>
-      <c r="H11" s="3"/>
+      <c r="H11" s="9">
+        <v>1</v>
+      </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="19" t="s">
+      <c r="J11" s="3"/>
+      <c r="K11" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="K11" s="23" t="s">
+      <c r="L11" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="L11" s="20" t="s">
+      <c r="M11" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="M11" s="25" t="s">
+      <c r="N11" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-      <c r="P11" s="3" t="s">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="Q11" s="3" t="s">
+      <c r="R11" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R11" s="21" t="s">
+      <c r="S11" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="S11" s="24" t="s">
+      <c r="T11" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="T11" s="22" t="s">
+      <c r="U11" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="U11" s="26" t="s">
+      <c r="V11" s="23" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C12" s="16">
+    <row r="12" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C12" s="29"/>
+      <c r="D12" s="14">
         <v>8</v>
       </c>
-      <c r="D12" s="9">
+      <c r="E12" s="9">
         <v>1</v>
-      </c>
-      <c r="E12" s="9">
-        <v>0</v>
       </c>
       <c r="F12" s="9">
         <v>0</v>
@@ -2546,290 +2576,296 @@
       <c r="G12" s="9">
         <v>0</v>
       </c>
-      <c r="H12" s="3"/>
+      <c r="H12" s="9">
+        <v>0</v>
+      </c>
       <c r="I12" s="3"/>
-      <c r="J12" s="19" t="s">
+      <c r="J12" s="3"/>
+      <c r="K12" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="K12" s="23" t="s">
+      <c r="L12" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="L12" s="20" t="s">
+      <c r="M12" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="M12" s="25" t="s">
+      <c r="N12" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="N12" s="3"/>
       <c r="O12" s="3"/>
-      <c r="P12" s="3" t="s">
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="Q12" s="3" t="s">
+      <c r="R12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="R12" s="21" t="s">
+      <c r="S12" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="S12" s="24" t="s">
+      <c r="T12" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="T12" s="22" t="s">
+      <c r="U12" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="U12" s="26" t="s">
+      <c r="V12" s="23" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="13" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C13" s="16">
+    <row r="13" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C13" s="29"/>
+      <c r="D13" s="14">
         <v>9</v>
       </c>
-      <c r="D13" s="9">
+      <c r="E13" s="9">
         <v>0.5</v>
-      </c>
-      <c r="E13" s="9">
-        <v>0</v>
       </c>
       <c r="F13" s="9">
         <v>0</v>
       </c>
       <c r="G13" s="9">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9">
         <v>1</v>
       </c>
-      <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="19" t="s">
+      <c r="J13" s="3"/>
+      <c r="K13" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="K13" s="23" t="s">
+      <c r="L13" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="L13" s="20" t="s">
+      <c r="M13" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="M13" s="25" t="s">
+      <c r="N13" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="N13" s="3"/>
       <c r="O13" s="3"/>
-      <c r="P13" s="3" t="s">
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="Q13" s="3" t="s">
+      <c r="R13" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R13" s="21" t="s">
+      <c r="S13" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="S13" s="24" t="s">
+      <c r="T13" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="T13" s="22" t="s">
+      <c r="U13" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="U13" s="26" t="s">
+      <c r="V13" s="23" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="14" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C14" s="16">
+    <row r="14" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C14" s="29"/>
+      <c r="D14" s="14">
         <v>10</v>
       </c>
-      <c r="D14" s="9">
+      <c r="E14" s="9">
         <v>1</v>
       </c>
-      <c r="E14" s="9">
+      <c r="F14" s="9">
         <v>0</v>
       </c>
-      <c r="F14" s="9">
+      <c r="G14" s="9">
         <v>1</v>
       </c>
-      <c r="G14" s="9">
+      <c r="H14" s="9">
         <v>0</v>
       </c>
-      <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="19" t="s">
+      <c r="J14" s="3"/>
+      <c r="K14" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="K14" s="23" t="s">
+      <c r="L14" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="L14" s="20" t="s">
+      <c r="M14" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="M14" s="25" t="s">
+      <c r="N14" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="N14" s="3"/>
       <c r="O14" s="3"/>
-      <c r="P14" s="3" t="s">
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="R14" s="21" t="s">
+      <c r="S14" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="S14" s="24" t="s">
+      <c r="T14" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="T14" s="22" t="s">
+      <c r="U14" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="U14" s="26" t="s">
+      <c r="V14" s="23" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="15" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C15" s="16">
+    <row r="15" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C15" s="29"/>
+      <c r="D15" s="14">
         <v>11</v>
       </c>
-      <c r="D15" s="9">
+      <c r="E15" s="9">
         <v>1</v>
       </c>
-      <c r="E15" s="9">
+      <c r="F15" s="9">
         <v>0</v>
-      </c>
-      <c r="F15" s="9">
-        <v>1</v>
       </c>
       <c r="G15" s="9">
         <v>1</v>
       </c>
-      <c r="H15" s="3"/>
+      <c r="H15" s="9">
+        <v>1</v>
+      </c>
       <c r="I15" s="3"/>
-      <c r="J15" s="19" t="s">
+      <c r="J15" s="3"/>
+      <c r="K15" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="K15" s="23" t="s">
+      <c r="L15" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="L15" s="20" t="s">
+      <c r="M15" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="M15" s="25" t="s">
+      <c r="N15" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
-      <c r="R15" s="21" t="s">
+      <c r="R15" s="3"/>
+      <c r="S15" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="S15" s="24" t="s">
+      <c r="T15" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="T15" s="22" t="s">
+      <c r="U15" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="U15" s="26" t="s">
+      <c r="V15" s="23" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C16" s="16">
+    <row r="16" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C16" s="29"/>
+      <c r="D16" s="14">
         <v>12</v>
-      </c>
-      <c r="D16" s="9">
-        <v>1</v>
       </c>
       <c r="E16" s="9">
         <v>1</v>
       </c>
       <c r="F16" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="9">
         <v>0</v>
       </c>
-      <c r="H16" s="3"/>
+      <c r="H16" s="9">
+        <v>0</v>
+      </c>
       <c r="I16" s="3"/>
-      <c r="J16" s="19" t="s">
+      <c r="J16" s="3"/>
+      <c r="K16" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="K16" s="23" t="s">
+      <c r="L16" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="L16" s="20" t="s">
+      <c r="M16" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="M16" s="25" t="s">
+      <c r="N16" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-      <c r="R16" s="21" t="s">
+      <c r="R16" s="3"/>
+      <c r="S16" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="S16" s="24" t="s">
+      <c r="T16" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="T16" s="22" t="s">
+      <c r="U16" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="U16" s="26" t="s">
+      <c r="V16" s="23" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C17" s="16">
+    <row r="17" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C17" s="29"/>
+      <c r="D17" s="14">
         <v>13</v>
-      </c>
-      <c r="D17" s="9">
-        <v>1</v>
       </c>
       <c r="E17" s="9">
         <v>1</v>
       </c>
       <c r="F17" s="9">
+        <v>1</v>
+      </c>
+      <c r="G17" s="9">
         <v>0</v>
       </c>
-      <c r="G17" s="9">
+      <c r="H17" s="9">
         <v>1</v>
       </c>
-      <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="19" t="s">
+      <c r="J17" s="3"/>
+      <c r="K17" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="K17" s="23" t="s">
+      <c r="L17" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="L17" s="20" t="s">
+      <c r="M17" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="M17" s="25" t="s">
+      <c r="N17" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
-      <c r="R17" s="21" t="s">
+      <c r="R17" s="3"/>
+      <c r="S17" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="S17" s="24" t="s">
+      <c r="T17" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="T17" s="22" t="s">
+      <c r="U17" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="U17" s="26" t="s">
+      <c r="V17" s="23" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C18" s="16">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C18" s="29"/>
+      <c r="D18" s="14">
         <v>14</v>
-      </c>
-      <c r="D18" s="9">
-        <v>1</v>
       </c>
       <c r="E18" s="9">
         <v>1</v>
@@ -2838,45 +2874,46 @@
         <v>1</v>
       </c>
       <c r="G18" s="9">
+        <v>1</v>
+      </c>
+      <c r="H18" s="9">
         <v>0</v>
       </c>
-      <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="19" t="s">
+      <c r="J18" s="3"/>
+      <c r="K18" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="K18" s="23" t="s">
+      <c r="L18" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="L18" s="20" t="s">
+      <c r="M18" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="M18" s="25" t="s">
+      <c r="N18" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
-      <c r="R18" s="21" t="s">
+      <c r="R18" s="3"/>
+      <c r="S18" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="S18" s="24" t="s">
+      <c r="T18" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="T18" s="22" t="s">
+      <c r="U18" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="U18" s="26" t="s">
+      <c r="V18" s="23" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C19" s="16">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C19" s="29"/>
+      <c r="D19" s="14">
         <v>15</v>
-      </c>
-      <c r="D19" s="9">
-        <v>1</v>
       </c>
       <c r="E19" s="9">
         <v>1</v>
@@ -2887,316 +2924,319 @@
       <c r="G19" s="9">
         <v>1</v>
       </c>
-      <c r="H19" s="3"/>
+      <c r="H19" s="9">
+        <v>1</v>
+      </c>
       <c r="I19" s="3"/>
-      <c r="J19" s="19" t="s">
+      <c r="J19" s="3"/>
+      <c r="K19" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="K19" s="23" t="s">
+      <c r="L19" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="L19" s="20" t="s">
+      <c r="M19" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="M19" s="25" t="s">
+      <c r="N19" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-      <c r="R19" s="21" t="s">
+      <c r="R19" s="3"/>
+      <c r="S19" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="S19" s="24" t="s">
+      <c r="T19" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="T19" s="22" t="s">
+      <c r="U19" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="U19" s="26" t="s">
+      <c r="V19" s="23" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="D20" s="8" t="s">
+    <row r="20" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="E20" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="F20" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="G20" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="H20" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="K20" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="L20" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="M20" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="N20" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="D21" s="8"/>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.25">
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
-      <c r="H21" s="13" t="s">
+      <c r="H21" s="8"/>
+      <c r="I21" s="32" t="s">
         <v>227</v>
       </c>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="D22" s="8"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="32"/>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.25">
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="10"/>
+      <c r="H22" s="8"/>
       <c r="I22" s="10"/>
-      <c r="J22" s="8"/>
+      <c r="J22" s="10"/>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="D23" s="8"/>
+      <c r="N22" s="8"/>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.25">
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="10"/>
+      <c r="H23" s="8"/>
       <c r="I23" s="10"/>
-      <c r="J23" s="8"/>
+      <c r="J23" s="10"/>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="D24" s="8"/>
+      <c r="N23" s="8"/>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.25">
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
-      <c r="H24" s="10"/>
+      <c r="H24" s="8"/>
       <c r="I24" s="10"/>
-      <c r="J24" s="8"/>
+      <c r="J24" s="10"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
-      <c r="N24" s="2" t="s">
+      <c r="N24" s="8"/>
+      <c r="O24" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="O24" s="2" t="s">
+      <c r="P24" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="P24" s="2" t="s">
+      <c r="Q24" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="D25" s="8"/>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.25">
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="10"/>
+      <c r="H25" s="8"/>
       <c r="I25" s="10"/>
-      <c r="J25" s="8"/>
+      <c r="J25" s="10"/>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
-      <c r="N25" s="2" t="s">
+      <c r="N25" s="8"/>
+      <c r="O25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P25" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q25" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="O25" s="2">
-        <v>19</v>
-      </c>
-      <c r="P25" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="D26" s="8"/>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.25">
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
-      <c r="H26" s="10"/>
+      <c r="H26" s="8"/>
       <c r="I26" s="10"/>
-      <c r="J26" s="8"/>
+      <c r="J26" s="10"/>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
-      <c r="N26" s="2" t="s">
+      <c r="N26" s="8"/>
+      <c r="O26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P26" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q26" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="O26" s="2">
-        <v>20</v>
-      </c>
-      <c r="P26" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="D27" s="8"/>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.25">
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
-      <c r="H27" s="10"/>
+      <c r="H27" s="8"/>
       <c r="I27" s="10"/>
-      <c r="J27" s="8"/>
+      <c r="J27" s="10"/>
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
-      <c r="N27" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="O27" s="2">
+      <c r="N27" s="8"/>
+      <c r="O27" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="P27" s="2">
         <v>9</v>
       </c>
-      <c r="P27" s="2" t="s">
+      <c r="Q27" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="D28" s="8"/>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.25">
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
-      <c r="H28" s="10"/>
+      <c r="H28" s="8"/>
       <c r="I28" s="10"/>
-      <c r="J28" s="8"/>
+      <c r="J28" s="10"/>
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
       <c r="M28" s="8"/>
-      <c r="N28" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="O28" s="2">
+      <c r="N28" s="8"/>
+      <c r="O28" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="P28" s="2">
         <v>8</v>
       </c>
-      <c r="P28" s="2" t="s">
+      <c r="Q28" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="D29" s="8"/>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.25">
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
-      <c r="H29" s="10"/>
+      <c r="H29" s="8"/>
       <c r="I29" s="10"/>
-      <c r="J29" s="8"/>
+      <c r="J29" s="10"/>
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
-      <c r="N29" s="2" t="s">
+      <c r="N29" s="8"/>
+      <c r="O29" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="O29" s="2">
+      <c r="P29" s="2">
         <v>5</v>
       </c>
-      <c r="P29" s="2" t="s">
+      <c r="Q29" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="D30" s="8"/>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.25">
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
-      <c r="H30" s="10"/>
+      <c r="H30" s="8"/>
       <c r="I30" s="10"/>
-      <c r="J30" s="8"/>
+      <c r="J30" s="10"/>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
       <c r="M30" s="8"/>
-      <c r="N30" s="2" t="s">
+      <c r="N30" s="8"/>
+      <c r="O30" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O30" s="2">
+      <c r="P30" s="2">
         <v>7</v>
       </c>
-      <c r="P30" s="2" t="s">
+      <c r="Q30" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="D31" s="8"/>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.25">
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
-      <c r="H31" s="10"/>
+      <c r="H31" s="8"/>
       <c r="I31" s="10"/>
-      <c r="J31" s="8"/>
+      <c r="J31" s="10"/>
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
       <c r="M31" s="8"/>
-      <c r="N31" s="2" t="s">
+      <c r="N31" s="8"/>
+      <c r="O31" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O31" s="2">
+      <c r="P31" s="2">
         <v>10</v>
       </c>
-      <c r="P31" s="2" t="s">
+      <c r="Q31" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="D32" s="8"/>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.25">
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
-      <c r="H32" s="10"/>
+      <c r="H32" s="8"/>
       <c r="I32" s="10"/>
-      <c r="J32" s="8"/>
+      <c r="J32" s="10"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
       <c r="M32" s="8"/>
-      <c r="N32" s="2" t="s">
+      <c r="N32" s="8"/>
+      <c r="O32" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O32" s="2">
+      <c r="P32" s="2">
         <v>11</v>
       </c>
-      <c r="P32" s="2" t="s">
+      <c r="Q32" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D33" s="8"/>
+    <row r="33" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
-      <c r="H33" s="10"/>
+      <c r="H33" s="8"/>
       <c r="I33" s="10"/>
-      <c r="J33" s="8"/>
+      <c r="J33" s="10"/>
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
       <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="H21:R21"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="I21:S21"/>
+    <mergeCell ref="E1:H1"/>
     <mergeCell ref="I1:I3"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:R1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -3208,7 +3248,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{628D12C0-F592-47FA-B596-6165DC5B8D5F}">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
@@ -3226,15 +3266,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">

--- a/.logics/ITENS-NECESSIDADES.xlsx
+++ b/.logics/ITENS-NECESSIDADES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Valcir\Documents\GitHub\InterDuinoFace_V1\.logics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95F7DB5-1B48-4D9A-9D99-4649AA0593A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0134A35-C060-4B0C-A79B-0CE965B484E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10335" yWindow="2040" windowWidth="15375" windowHeight="7995" firstSheet="1" activeTab="1" xr2:uid="{DE3D6ED8-2858-4C9A-8A32-B45163665D44}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{DE3D6ED8-2858-4C9A-8A32-B45163665D44}"/>
   </bookViews>
   <sheets>
     <sheet name="ITENS-NECESSIDADES" sheetId="1" r:id="rId1"/>
@@ -656,33 +656,9 @@
     <t>IN | OUT (DIG | 0-1023)</t>
   </si>
   <si>
-    <t>D5(8)</t>
-  </si>
-  <si>
     <t>PIN:</t>
   </si>
   <si>
-    <t>D6(9)</t>
-  </si>
-  <si>
-    <t>D2(5)</t>
-  </si>
-  <si>
-    <t>D4(7)</t>
-  </si>
-  <si>
-    <t>D7(10)</t>
-  </si>
-  <si>
-    <t>D8(11)</t>
-  </si>
-  <si>
-    <t>A0(19)</t>
-  </si>
-  <si>
-    <t>A1(20)</t>
-  </si>
-  <si>
     <t>TENSÃO DE BATERIA</t>
   </si>
   <si>
@@ -728,9 +704,6 @@
     <t>PINO ARDUINO</t>
   </si>
   <si>
-    <t>PORTAS ARDUINO A0=A0(19);A1=A1(20);D0=D6(9);D1=D5(8); S0=D2(5);S1=D4(7);S2=D7(10);S3=D8(11).</t>
-  </si>
-  <si>
     <t>MUX 1(A0)</t>
   </si>
   <si>
@@ -759,6 +732,33 @@
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>D8(8)</t>
+  </si>
+  <si>
+    <t>A1()</t>
+  </si>
+  <si>
+    <t>A0()</t>
+  </si>
+  <si>
+    <t>D7(7)</t>
+  </si>
+  <si>
+    <t>D4(4)</t>
+  </si>
+  <si>
+    <t>D2(2)</t>
+  </si>
+  <si>
+    <t>D6(6)</t>
+  </si>
+  <si>
+    <t>D5(5)</t>
+  </si>
+  <si>
+    <t>PORTAS ARDUINO A0=A0();A1=A1();D0=D6(6);D1=D5(5); S0=D2(2);S1=D4(4);S2=D7(7);S3=D8(8).</t>
   </si>
 </sst>
 </file>
@@ -880,9 +880,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -931,6 +928,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1264,33 +1264,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="27" customWidth="1"/>
-    <col min="2" max="2" width="15" style="27" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="27" customWidth="1"/>
-    <col min="4" max="4" width="8" style="27" customWidth="1"/>
-    <col min="5" max="5" width="7" style="27" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" style="27" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="27"/>
+    <col min="1" max="1" width="15.42578125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="15" style="26" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="26" customWidth="1"/>
+    <col min="4" max="4" width="8" style="26" customWidth="1"/>
+    <col min="5" max="5" width="7" style="26" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" style="26" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="26" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:6" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="25" t="s">
-        <v>219</v>
+      <c r="F1" s="24" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1334,14 +1334,14 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="27" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>74</v>
@@ -1349,7 +1349,7 @@
       <c r="E4" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>158</v>
       </c>
     </row>
@@ -1374,14 +1374,14 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="27" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>79</v>
@@ -1414,14 +1414,14 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="27" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>80</v>
@@ -1434,14 +1434,14 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="27" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>79</v>
@@ -1454,14 +1454,14 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="27" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>80</v>
@@ -1474,14 +1474,14 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="27" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>81</v>
@@ -1494,14 +1494,14 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="27" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>82</v>
@@ -1514,14 +1514,14 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="27" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>79</v>
@@ -1534,14 +1534,14 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="27" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>79</v>
@@ -1554,14 +1554,14 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="27" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>80</v>
@@ -1574,14 +1574,14 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="27" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>80</v>
@@ -1594,14 +1594,14 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="27" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>81</v>
@@ -1614,14 +1614,14 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="27" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>81</v>
@@ -1634,14 +1634,14 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="27" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>82</v>
@@ -1654,14 +1654,14 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
-        <v>224</v>
-      </c>
-      <c r="B20" s="28" t="s">
+      <c r="A20" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="B20" s="27" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>82</v>
@@ -1674,14 +1674,14 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="27" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>83</v>
@@ -1694,14 +1694,14 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="27" t="s">
         <v>9</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>83</v>
@@ -1714,14 +1714,14 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="27" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>74</v>
@@ -1734,14 +1734,14 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="27" t="s">
         <v>9</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>74</v>
@@ -1754,14 +1754,14 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="27" t="s">
         <v>9</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>75</v>
@@ -1774,14 +1774,14 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="27" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>75</v>
@@ -1794,14 +1794,14 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="27" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>73</v>
@@ -1814,14 +1814,14 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="27" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>73</v>
@@ -1834,14 +1834,14 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="27" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>76</v>
@@ -1854,14 +1854,14 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="28" t="s">
+      <c r="A30" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="27" t="s">
         <v>9</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>77</v>
@@ -1874,14 +1874,14 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="27" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>77</v>
@@ -1894,14 +1894,14 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="27" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>78</v>
@@ -1914,14 +1914,14 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="28" t="s">
+      <c r="A33" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="27" t="s">
         <v>9</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>78</v>
@@ -1934,14 +1934,14 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="27" t="s">
         <v>9</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>76</v>
@@ -1962,8 +1962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{138681DD-0EED-4E12-9D97-18CF9594564D}">
   <dimension ref="A1:V33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1985,189 +1985,189 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C1" s="29"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="31" t="s">
+      <c r="C1" s="28"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31" t="s">
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="K1" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31" t="s">
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31" t="s">
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30" t="s">
         <v>200</v>
       </c>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
     </row>
     <row r="2" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C2" s="29"/>
-      <c r="D2" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="M2" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="N2" s="15" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="O2" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="P2" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q2" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="R2" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="S2" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="T2" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="U2" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="V2" s="15" t="s">
-        <v>203</v>
+      <c r="E2" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="S2" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="T2" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="U2" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="V2" s="14" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C3" s="29" t="s">
-        <v>235</v>
-      </c>
-      <c r="D3" s="13" t="s">
+      <c r="C3" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="15" t="s">
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="M3" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="N3" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="O3" s="15" t="s">
+      <c r="M3" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="O3" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="P3" s="15" t="s">
+      <c r="P3" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="Q3" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="R3" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="S3" s="15" t="s">
+      <c r="Q3" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="R3" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="S3" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="T3" s="15" t="s">
+      <c r="T3" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="U3" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="V3" s="15" t="s">
-        <v>237</v>
+      <c r="U3" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="V3" s="14" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C4" s="30"/>
-      <c r="D4" s="14">
+      <c r="C4" s="29"/>
+      <c r="D4" s="13">
         <v>0</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="33">
         <v>0</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="33">
         <v>0</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="33">
         <v>0</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="33">
         <v>0</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="M4" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="N4" s="22" t="s">
+      <c r="N4" s="21" t="s">
         <v>186</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="Q4" s="3" t="s">
         <v>67</v>
@@ -2175,55 +2175,55 @@
       <c r="R4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="S4" s="18" t="s">
+      <c r="S4" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="T4" s="21" t="s">
+      <c r="T4" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="U4" s="19" t="s">
+      <c r="U4" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="V4" s="23" t="s">
+      <c r="V4" s="22" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="5" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C5" s="29"/>
-      <c r="D5" s="14">
+      <c r="C5" s="28"/>
+      <c r="D5" s="13">
         <v>1</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="33">
         <v>0</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="33">
         <v>0</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="33">
         <v>0</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="33">
         <v>1</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="L5" s="20" t="s">
+      <c r="L5" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="M5" s="17" t="s">
+      <c r="M5" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="N5" s="22" t="s">
+      <c r="N5" s="21" t="s">
         <v>187</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="Q5" s="3" t="s">
         <v>63</v>
@@ -2231,55 +2231,55 @@
       <c r="R5" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="S5" s="18" t="s">
+      <c r="S5" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="T5" s="21" t="s">
+      <c r="T5" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="U5" s="19" t="s">
+      <c r="U5" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="V5" s="23" t="s">
+      <c r="V5" s="22" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="6" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C6" s="29"/>
-      <c r="D6" s="14">
+      <c r="C6" s="28"/>
+      <c r="D6" s="13">
         <v>2</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="33">
         <v>0</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="33">
         <v>0</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="33">
         <v>1</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="33">
         <v>0</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="L6" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="M6" s="17" t="s">
+      <c r="M6" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="N6" s="22" t="s">
+      <c r="N6" s="21" t="s">
         <v>180</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="Q6" s="3" t="s">
         <v>65</v>
@@ -2287,52 +2287,52 @@
       <c r="R6" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="S6" s="18" t="s">
+      <c r="S6" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="T6" s="21" t="s">
+      <c r="T6" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="U6" s="19" t="s">
+      <c r="U6" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="V6" s="23" t="s">
+      <c r="V6" s="22" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="7" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C7" s="29"/>
-      <c r="D7" s="14">
+      <c r="C7" s="28"/>
+      <c r="D7" s="13">
         <v>3</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="33">
         <v>0</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="33">
         <v>0</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="33">
         <v>1</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="33">
         <v>1</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="L7" s="20" t="s">
+      <c r="L7" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="M7" s="17" t="s">
+      <c r="M7" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="N7" s="22" t="s">
+      <c r="N7" s="21" t="s">
         <v>181</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="P7" s="3"/>
       <c r="Q7" s="3" t="s">
@@ -2341,48 +2341,48 @@
       <c r="R7" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="S7" s="18" t="s">
+      <c r="S7" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="T7" s="21" t="s">
+      <c r="T7" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="U7" s="19" t="s">
+      <c r="U7" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="V7" s="23" t="s">
+      <c r="V7" s="22" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="8" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C8" s="29"/>
-      <c r="D8" s="14">
+      <c r="C8" s="28"/>
+      <c r="D8" s="13">
         <v>4</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="33">
         <v>0</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="33">
         <v>1</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="33">
         <v>0</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="33">
         <v>0</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="16" t="s">
+      <c r="K8" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="L8" s="20" t="s">
+      <c r="L8" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="M8" s="17" t="s">
+      <c r="M8" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="N8" s="22" t="s">
+      <c r="N8" s="21" t="s">
         <v>188</v>
       </c>
       <c r="O8" s="3"/>
@@ -2393,48 +2393,48 @@
       <c r="R8" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="S8" s="18" t="s">
+      <c r="S8" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="T8" s="21" t="s">
+      <c r="T8" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="U8" s="19" t="s">
+      <c r="U8" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="V8" s="23" t="s">
+      <c r="V8" s="22" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="9" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C9" s="29"/>
-      <c r="D9" s="14">
+      <c r="C9" s="28"/>
+      <c r="D9" s="13">
         <v>5</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="33">
         <v>0</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="33">
         <v>1</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="33">
         <v>0</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="33">
         <v>1</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="16" t="s">
+      <c r="K9" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="L9" s="20" t="s">
+      <c r="L9" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="M9" s="17" t="s">
+      <c r="M9" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="N9" s="22" t="s">
+      <c r="N9" s="21" t="s">
         <v>189</v>
       </c>
       <c r="O9" s="3"/>
@@ -2445,48 +2445,48 @@
       <c r="R9" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="S9" s="18" t="s">
+      <c r="S9" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="T9" s="21" t="s">
+      <c r="T9" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="U9" s="19" t="s">
+      <c r="U9" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="V9" s="23" t="s">
+      <c r="V9" s="22" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="10" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C10" s="29"/>
-      <c r="D10" s="14">
+      <c r="C10" s="28"/>
+      <c r="D10" s="13">
         <v>6</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="33">
         <v>0</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="33">
         <v>1</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="33">
         <v>1</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="33">
         <v>0</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="16" t="s">
+      <c r="K10" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="L10" s="20" t="s">
+      <c r="L10" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="M10" s="17" t="s">
+      <c r="M10" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="N10" s="22" t="s">
+      <c r="N10" s="21" t="s">
         <v>190</v>
       </c>
       <c r="O10" s="3"/>
@@ -2497,48 +2497,48 @@
       <c r="R10" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="S10" s="18" t="s">
+      <c r="S10" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="T10" s="21" t="s">
+      <c r="T10" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="U10" s="19" t="s">
+      <c r="U10" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="V10" s="23" t="s">
+      <c r="V10" s="22" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="11" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C11" s="29"/>
-      <c r="D11" s="14">
+      <c r="C11" s="28"/>
+      <c r="D11" s="13">
         <v>7</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="33">
         <v>0</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="33">
         <v>1</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="33">
         <v>1</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="33">
         <v>1</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="16" t="s">
+      <c r="K11" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="L11" s="20" t="s">
+      <c r="L11" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="M11" s="17" t="s">
+      <c r="M11" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="N11" s="22" t="s">
+      <c r="N11" s="21" t="s">
         <v>191</v>
       </c>
       <c r="O11" s="3"/>
@@ -2549,48 +2549,48 @@
       <c r="R11" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="S11" s="18" t="s">
+      <c r="S11" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="T11" s="21" t="s">
+      <c r="T11" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="U11" s="19" t="s">
+      <c r="U11" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="V11" s="23" t="s">
+      <c r="V11" s="22" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="12" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C12" s="29"/>
-      <c r="D12" s="14">
+      <c r="C12" s="28"/>
+      <c r="D12" s="13">
         <v>8</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="33">
         <v>1</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="33">
         <v>0</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="33">
         <v>0</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="33">
         <v>0</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="16" t="s">
+      <c r="K12" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="L12" s="20" t="s">
+      <c r="L12" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="M12" s="17" t="s">
+      <c r="M12" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="N12" s="22" t="s">
+      <c r="N12" s="21" t="s">
         <v>192</v>
       </c>
       <c r="O12" s="3"/>
@@ -2601,48 +2601,48 @@
       <c r="R12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="S12" s="18" t="s">
+      <c r="S12" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="T12" s="21" t="s">
+      <c r="T12" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="U12" s="19" t="s">
+      <c r="U12" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="V12" s="23" t="s">
+      <c r="V12" s="22" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="13" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C13" s="29"/>
-      <c r="D13" s="14">
+      <c r="C13" s="28"/>
+      <c r="D13" s="13">
         <v>9</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="33">
         <v>0.5</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="33">
         <v>0</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="33">
         <v>0</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="33">
         <v>1</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="16" t="s">
+      <c r="K13" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="L13" s="20" t="s">
+      <c r="L13" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="M13" s="17" t="s">
+      <c r="M13" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="N13" s="22" t="s">
+      <c r="N13" s="21" t="s">
         <v>193</v>
       </c>
       <c r="O13" s="3"/>
@@ -2653,48 +2653,48 @@
       <c r="R13" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="S13" s="18" t="s">
+      <c r="S13" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="T13" s="21" t="s">
+      <c r="T13" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="U13" s="19" t="s">
+      <c r="U13" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="V13" s="23" t="s">
+      <c r="V13" s="22" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="14" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C14" s="29"/>
-      <c r="D14" s="14">
+      <c r="C14" s="28"/>
+      <c r="D14" s="13">
         <v>10</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="33">
         <v>1</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="33">
         <v>0</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="33">
         <v>1</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="33">
         <v>0</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="K14" s="16" t="s">
+      <c r="K14" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="L14" s="20" t="s">
+      <c r="L14" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="M14" s="17" t="s">
+      <c r="M14" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="N14" s="22" t="s">
+      <c r="N14" s="21" t="s">
         <v>194</v>
       </c>
       <c r="O14" s="3"/>
@@ -2705,283 +2705,283 @@
       <c r="R14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="S14" s="18" t="s">
+      <c r="S14" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="T14" s="21" t="s">
+      <c r="T14" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="U14" s="19" t="s">
+      <c r="U14" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="V14" s="23" t="s">
+      <c r="V14" s="22" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="15" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C15" s="29"/>
-      <c r="D15" s="14">
+      <c r="C15" s="28"/>
+      <c r="D15" s="13">
         <v>11</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="33">
         <v>1</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="33">
         <v>0</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="33">
         <v>1</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="33">
         <v>1</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-      <c r="K15" s="16" t="s">
+      <c r="K15" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="L15" s="20" t="s">
+      <c r="L15" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="M15" s="17" t="s">
+      <c r="M15" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="N15" s="22" t="s">
+      <c r="N15" s="21" t="s">
         <v>195</v>
       </c>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
-      <c r="S15" s="18" t="s">
+      <c r="S15" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="T15" s="21" t="s">
+      <c r="T15" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="U15" s="19" t="s">
+      <c r="U15" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="V15" s="23" t="s">
+      <c r="V15" s="22" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="16" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C16" s="29"/>
-      <c r="D16" s="14">
+      <c r="C16" s="28"/>
+      <c r="D16" s="13">
         <v>12</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="33">
         <v>1</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="33">
         <v>1</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="33">
         <v>0</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="33">
         <v>0</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-      <c r="K16" s="16" t="s">
+      <c r="K16" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="L16" s="20" t="s">
+      <c r="L16" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="M16" s="17" t="s">
+      <c r="M16" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="N16" s="22" t="s">
+      <c r="N16" s="21" t="s">
         <v>196</v>
       </c>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-      <c r="S16" s="18" t="s">
+      <c r="S16" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="T16" s="21" t="s">
+      <c r="T16" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="U16" s="19" t="s">
+      <c r="U16" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="V16" s="23" t="s">
+      <c r="V16" s="22" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="17" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C17" s="29"/>
-      <c r="D17" s="14">
+      <c r="C17" s="28"/>
+      <c r="D17" s="13">
         <v>13</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="33">
         <v>1</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="33">
         <v>1</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="33">
         <v>0</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="33">
         <v>1</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="16" t="s">
+      <c r="K17" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="L17" s="20" t="s">
+      <c r="L17" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="M17" s="17" t="s">
+      <c r="M17" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="N17" s="22" t="s">
+      <c r="N17" s="21" t="s">
         <v>197</v>
       </c>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
-      <c r="S17" s="18" t="s">
+      <c r="S17" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="T17" s="21" t="s">
+      <c r="T17" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="U17" s="19" t="s">
+      <c r="U17" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="V17" s="23" t="s">
+      <c r="V17" s="22" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="18" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C18" s="29"/>
-      <c r="D18" s="14">
+      <c r="C18" s="28"/>
+      <c r="D18" s="13">
         <v>14</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="33">
         <v>1</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="33">
         <v>1</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="33">
         <v>1</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="33">
         <v>0</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="16" t="s">
+      <c r="K18" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="L18" s="20" t="s">
+      <c r="L18" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="M18" s="17" t="s">
+      <c r="M18" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="N18" s="22" t="s">
+      <c r="N18" s="21" t="s">
         <v>198</v>
       </c>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
-      <c r="S18" s="18" t="s">
+      <c r="S18" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="T18" s="21" t="s">
+      <c r="T18" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="U18" s="19" t="s">
+      <c r="U18" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="V18" s="23" t="s">
+      <c r="V18" s="22" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="19" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C19" s="29"/>
-      <c r="D19" s="14">
+      <c r="C19" s="28"/>
+      <c r="D19" s="13">
         <v>15</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="33">
         <v>1</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="33">
         <v>1</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="33">
         <v>1</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="33">
         <v>1</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="16" t="s">
+      <c r="K19" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="L19" s="20" t="s">
+      <c r="L19" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="M19" s="17" t="s">
+      <c r="M19" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="N19" s="22" t="s">
+      <c r="N19" s="21" t="s">
         <v>199</v>
       </c>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-      <c r="S19" s="18" t="s">
+      <c r="S19" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="T19" s="21" t="s">
+      <c r="T19" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="U19" s="19" t="s">
+      <c r="U19" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="V19" s="23" t="s">
+      <c r="V19" s="22" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="20" spans="3:22" x14ac:dyDescent="0.25">
       <c r="E20" s="8" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>203</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="3:22" x14ac:dyDescent="0.25">
@@ -2989,27 +2989,27 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
-      <c r="I21" s="32" t="s">
-        <v>227</v>
-      </c>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="32"/>
-      <c r="S21" s="32"/>
+      <c r="I21" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="31"/>
+      <c r="S21" s="31"/>
     </row>
     <row r="22" spans="3:22" x14ac:dyDescent="0.25">
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
@@ -3020,8 +3020,8 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
@@ -3032,17 +3032,17 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
       <c r="O24" s="2" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="Q24" s="2" t="s">
         <v>113</v>
@@ -3053,8 +3053,8 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
@@ -3074,8 +3074,8 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
@@ -3095,14 +3095,14 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
       <c r="O27" s="2" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="P27" s="2">
         <v>9</v>
@@ -3116,14 +3116,14 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
       <c r="O28" s="2" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="P28" s="2">
         <v>8</v>
@@ -3137,8 +3137,8 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
@@ -3158,8 +3158,8 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
       <c r="M30" s="8"/>
@@ -3179,8 +3179,8 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
       <c r="M31" s="8"/>
@@ -3200,8 +3200,8 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
       <c r="M32" s="8"/>
@@ -3221,8 +3221,8 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
       <c r="M33" s="8"/>
@@ -3248,14 +3248,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{628D12C0-F592-47FA-B596-6165DC5B8D5F}">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
@@ -3266,21 +3266,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>130</v>
       </c>
       <c r="C2" t="s">
@@ -3302,23 +3302,23 @@
         <v>136</v>
       </c>
       <c r="I2" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="J2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="K2" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="L2" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="11">
+      <c r="A3" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="10">
         <v>1</v>
       </c>
       <c r="C3" t="s">
@@ -3353,10 +3353,10 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" s="11">
+      <c r="A4" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="10">
         <v>2</v>
       </c>
       <c r="C4" t="s">
@@ -3391,10 +3391,10 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="11">
+      <c r="A5" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="10">
         <v>3</v>
       </c>
       <c r="C5" t="s">
@@ -3429,10 +3429,10 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="11">
+      <c r="A6" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="10">
         <v>4</v>
       </c>
       <c r="C6" t="s">
@@ -3467,10 +3467,10 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="11">
+      <c r="A7" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="10">
         <v>5</v>
       </c>
       <c r="C7" t="s">
@@ -3505,10 +3505,10 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" s="11">
+      <c r="A8" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="10">
         <v>6</v>
       </c>
       <c r="C8" t="s">
@@ -3543,10 +3543,10 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" s="11">
+      <c r="A9" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="10">
         <v>7</v>
       </c>
       <c r="C9" t="s">
@@ -3581,10 +3581,10 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="11">
+      <c r="A10" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="10">
         <v>8</v>
       </c>
       <c r="C10" t="s">
@@ -3619,10 +3619,10 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="11">
+      <c r="A11" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="10">
         <v>9</v>
       </c>
       <c r="C11" t="s">
@@ -3657,10 +3657,10 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="11">
+      <c r="A12" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="10">
         <v>10</v>
       </c>
       <c r="C12" t="s">
@@ -3695,10 +3695,10 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="11">
+      <c r="A13" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="10">
         <v>11</v>
       </c>
       <c r="C13" t="s">
@@ -3733,10 +3733,10 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="11">
+      <c r="A14" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="10">
         <v>12</v>
       </c>
       <c r="C14" t="s">
@@ -3771,10 +3771,10 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" s="11">
+      <c r="A15" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="10">
         <v>13</v>
       </c>
       <c r="C15" t="s">
@@ -3809,10 +3809,10 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
+      <c r="A16" s="10">
         <v>4</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="10">
         <v>14</v>
       </c>
       <c r="C16" t="s">
@@ -3847,10 +3847,10 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
+      <c r="A17" s="10">
         <v>1</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="10">
         <v>15</v>
       </c>
       <c r="C17" t="s">
@@ -3885,10 +3885,10 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
+      <c r="A18" s="10">
         <v>3</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="10">
         <v>16</v>
       </c>
       <c r="C18" t="s">
@@ -3923,10 +3923,10 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" s="11">
+      <c r="A19" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="10">
         <v>17</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -3961,10 +3961,10 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" s="11">
+      <c r="A20" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="10">
         <v>18</v>
       </c>
       <c r="C20" t="s">
@@ -3999,10 +3999,10 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" s="11">
+      <c r="A21" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="10">
         <v>19</v>
       </c>
       <c r="C21" t="s">
@@ -4037,10 +4037,10 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B22" s="11">
+      <c r="A22" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="10">
         <v>20</v>
       </c>
       <c r="C22" t="s">
@@ -4075,10 +4075,10 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B23" s="11">
+      <c r="A23" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="10">
         <v>21</v>
       </c>
       <c r="C23" t="s">
@@ -4113,10 +4113,10 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="11">
+      <c r="A24" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="10">
         <v>22</v>
       </c>
       <c r="C24" t="s">
@@ -4151,10 +4151,10 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B25" s="11">
+      <c r="A25" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="10">
         <v>23</v>
       </c>
       <c r="C25" t="s">
@@ -4189,10 +4189,10 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B26" s="11">
+      <c r="A26" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="10">
         <v>24</v>
       </c>
       <c r="C26" t="s">
@@ -4227,10 +4227,10 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="11">
+      <c r="A27" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="10">
         <v>25</v>
       </c>
       <c r="C27" t="s">
@@ -4265,10 +4265,10 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B28" s="11">
+      <c r="A28" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="10">
         <v>26</v>
       </c>
       <c r="C28" t="s">
@@ -4303,10 +4303,10 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="11">
+      <c r="A29" s="10">
         <v>2</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29" s="10">
         <v>27</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -4341,10 +4341,10 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="11">
+      <c r="A30" s="10">
         <v>5</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="10">
         <v>28</v>
       </c>
       <c r="C30" t="s">
@@ -4379,10 +4379,10 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="11">
+      <c r="A31" s="10">
         <v>6</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B31" s="10">
         <v>29</v>
       </c>
       <c r="C31" t="s">
@@ -4417,10 +4417,10 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B32" s="11">
+      <c r="A32" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="10">
         <v>30</v>
       </c>
       <c r="C32" t="s">
@@ -4456,17 +4456,17 @@
     </row>
     <row r="38" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="39" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="40" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
